--- a/target/test-classes/testdata/hrmsTestData.xlsx
+++ b/target/test-classes/testdata/hrmsTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrrudenko/eclipse-workspace/SyntaxHrms/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrrudenko/eclipse-workspace/CucumberFramework/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5758DD60-EC88-CA40-97CC-89EAE2F732ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D89B5-9FC9-B641-B595-9157FBB4ACB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{201197DA-085C-D24B-8D89-52720F400F6B}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>MiddleName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>John</t>
   </si>
@@ -64,6 +55,30 @@
   </si>
   <si>
     <t>Due</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>20616A</t>
+  </si>
+  <si>
+    <t>20945A</t>
+  </si>
+  <si>
+    <t>21049A</t>
+  </si>
+  <si>
+    <t>21156A</t>
   </si>
 </sst>
 </file>
@@ -415,67 +430,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE4D7EA-0318-F448-B31D-8E768B6BE58B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
